--- a/biology/Botanique/Renoncule_des_champs/Renoncule_des_champs.xlsx
+++ b/biology/Botanique/Renoncule_des_champs/Renoncule_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus arvensis
-La Renoncule des champs ou Chausse-trappe des blés[1] (Ranunculus arvensis L.) est une espèce de plantes à fleurs de la famille des Renonculacées. Cette renoncule herbacée annuelle messicole est aussi appelée localement bassinet des champs ou pied de poule. 
+La Renoncule des champs ou Chausse-trappe des blés (Ranunculus arvensis L.) est une espèce de plantes à fleurs de la famille des Renonculacées. Cette renoncule herbacée annuelle messicole est aussi appelée localement bassinet des champs ou pied de poule. 
 C'est un bouton-d'or qui montre dans les moissons, de mai à juillet, ses petites fleurs jaunes hermaphrodites. Cette plante est irritante et dangereuse comme fourrage car elle contient de l'anémonine. Elle est en régression dans les cultures car éliminée par certains herbicides.
-Elle se rencontre en bordure des cultures et dans les friches[2].
+Elle se rencontre en bordure des cultures et dans les friches.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige dressée, ramifiée au sommet, glabre ou pubescente mesure 20 à 40 cm de haut.
 Les feuilles sont alternes, les inférieures à limbe spatulé, simple ou triséqué à segments lancéolés, dentés, assez longuement pétiolulés, les caulinaires à limbe souvent découpé en 3 lanières linéaires de moins de 6 mm de large.
@@ -552,7 +566,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cynomorbium heterophyllum Opiz
 Hericinia arvensis (L.) Fourr.
